--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3411516.640908665</v>
+        <v>3515696.275359738</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283177</v>
       </c>
     </row>
     <row r="9">
@@ -659,19 +661,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>179.6171786497967</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>384.0719632842691</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -707,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -832,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>6.882988967594683</v>
+        <v>236.4921546615295</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>379.8533193261152</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>401.1731470761671</v>
       </c>
       <c r="G5" t="n">
         <v>10.92172565345345</v>
@@ -914,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,10 +958,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,25 +1056,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,13 +1107,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>155.0424279803016</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>158.9905803529239</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>395.010572217807</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1184,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>108.9812949757281</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1342,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>139.7297043644269</v>
+        <v>217.1831589955479</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465691</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462238</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856543</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012159</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>211.147499124905</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>159.9796912851476</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520947</v>
       </c>
     </row>
     <row r="14">
@@ -1604,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569552</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>100.736283162477</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>22.65115569188991</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520947</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695349</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465691</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462238</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856542</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.632620083626189</v>
+        <v>66.37524671012157</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>2.813978415466854</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520947</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2096,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D22" t="n">
-        <v>104.6857048437772</v>
+        <v>12.76515480632025</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465691</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462238</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856542</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012157</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520947</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465691</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>19.91555826189378</v>
       </c>
       <c r="S25" t="n">
-        <v>39.56681219551553</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520947</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>108.516367906614</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2728,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,16 +2772,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>73.78331078915251</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2849,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2965,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>99.98993057842264</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,16 +3003,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>5.890337106877586</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3089,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3196,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>75.00788511618039</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,19 +3243,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>172.1249649038638</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3281,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144413</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,10 +3319,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>142.3575218158279</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,19 +3474,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>176.8394623191253</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3506,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206807</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3566,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3664,10 +3666,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>103.1686991936193</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>26.70391688093298</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3901,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>108.9065924712584</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3961,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>186.6498836607803</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4138,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>47.49734780285714</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>99.97427419833815</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4192,13 +4194,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1921.870414581994</v>
+        <v>921.7704558796229</v>
       </c>
       <c r="C2" t="n">
-        <v>1552.907897641582</v>
+        <v>740.3389622939696</v>
       </c>
       <c r="D2" t="n">
-        <v>1552.907897641582</v>
+        <v>382.0732636872191</v>
       </c>
       <c r="E2" t="n">
-        <v>1167.119645043338</v>
+        <v>382.0732636872191</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G2" t="n">
         <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052365</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609168</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136263</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520485</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794321</v>
       </c>
       <c r="V2" t="n">
-        <v>3072.075344883007</v>
+        <v>2424.744041450751</v>
       </c>
       <c r="W2" t="n">
-        <v>3072.075344883007</v>
+        <v>2071.975386180636</v>
       </c>
       <c r="X2" t="n">
-        <v>2698.609586621928</v>
+        <v>1698.509627919556</v>
       </c>
       <c r="Y2" t="n">
-        <v>2308.470254646116</v>
+        <v>1308.370295943745</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556935</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275809</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614557</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609102</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635986</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686049</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064724</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080108</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.741664998628</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978975</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291641</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513957</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068411</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486466</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962568</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609168</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201683</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695163</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373019</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507434</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275692</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.92326954749</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341957</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577004</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>945.3964936596652</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="C4" t="n">
-        <v>776.4603107317583</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="D4" t="n">
-        <v>626.3436713194226</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E4" t="n">
-        <v>478.4305777370295</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279951</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="U4" t="n">
-        <v>1837.464090846021</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1582.779602640134</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W4" t="n">
-        <v>1575.827088531452</v>
+        <v>896.0277600634403</v>
       </c>
       <c r="X4" t="n">
-        <v>1347.837537633435</v>
+        <v>896.0277600634403</v>
       </c>
       <c r="Y4" t="n">
-        <v>1127.044958489905</v>
+        <v>675.2351809199101</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1528.069587875904</v>
+        <v>1935.366530930991</v>
       </c>
       <c r="C5" t="n">
-        <v>1528.069587875904</v>
+        <v>1566.404013990579</v>
       </c>
       <c r="D5" t="n">
-        <v>1169.803889269154</v>
+        <v>1208.138315383829</v>
       </c>
       <c r="E5" t="n">
-        <v>786.1136677276231</v>
+        <v>822.3500627855844</v>
       </c>
       <c r="F5" t="n">
-        <v>375.1277629380156</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4604,13 +4606,13 @@
         <v>2678.274518176917</v>
       </c>
       <c r="W5" t="n">
-        <v>2678.274518176917</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X5" t="n">
-        <v>2304.808759915838</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="Y5" t="n">
-        <v>1914.669427940026</v>
+        <v>1935.366530930991</v>
       </c>
     </row>
     <row r="6">
@@ -4620,70 +4622,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>461.8675266085669</v>
+        <v>678.6720730524786</v>
       </c>
       <c r="C7" t="n">
-        <v>461.8675266085669</v>
+        <v>509.7358901245717</v>
       </c>
       <c r="D7" t="n">
-        <v>311.7508871962312</v>
+        <v>359.619250712236</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4753,22 +4755,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1489.169693561431</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1200.066826687075</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V7" t="n">
-        <v>1200.066826687075</v>
+        <v>1196.078793987456</v>
       </c>
       <c r="W7" t="n">
-        <v>910.6496566501144</v>
+        <v>906.6616239504959</v>
       </c>
       <c r="X7" t="n">
-        <v>682.660105752097</v>
+        <v>678.6720730524786</v>
       </c>
       <c r="Y7" t="n">
-        <v>461.8675266085669</v>
+        <v>678.6720730524786</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>922.5820433455031</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,16 +4804,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>3215.315153136266</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2841.849394875186</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>793.5839474470786</v>
+        <v>794.6070935315613</v>
       </c>
       <c r="C10" t="n">
-        <v>624.6477645191717</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="D10" t="n">
-        <v>624.6477645191717</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
         <v>477.7578170212613</v>
@@ -4990,22 +4992,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="W10" t="n">
-        <v>1242.366077488626</v>
+        <v>1197.048137505331</v>
       </c>
       <c r="X10" t="n">
-        <v>1014.376526590609</v>
+        <v>1197.048137505331</v>
       </c>
       <c r="Y10" t="n">
-        <v>793.5839474470786</v>
+        <v>976.255558361801</v>
       </c>
     </row>
     <row r="11">
@@ -5021,37 +5023,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5060,31 +5062,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1731.250242493492</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>929.7309773356188</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>779.6143379232832</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408902</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429799</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.61519755786</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1983.782243341199</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1983.782243341199</v>
       </c>
       <c r="V13" t="n">
-        <v>1526.790206091931</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W13" t="n">
-        <v>1237.37303605497</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>1237.37303605497</v>
+        <v>1501.108204237295</v>
       </c>
       <c r="Y13" t="n">
-        <v>1016.58045691144</v>
+        <v>1280.315625093765</v>
       </c>
     </row>
     <row r="14">
@@ -5270,19 +5272,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5294,10 +5296,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5309,10 +5311,10 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852888</v>
@@ -5321,7 +5323,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5352,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>120.6800663848344</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>454.604838556055</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718135</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718135</v>
       </c>
       <c r="N15" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2223.769289033212</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>733.4550657171301</v>
+        <v>580.899304487671</v>
       </c>
       <c r="C16" t="n">
-        <v>733.4550657171301</v>
+        <v>580.899304487671</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>430.7826650753353</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>430.7826650753353</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>283.8927175774251</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>116.6966182923051</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588917</v>
+        <v>1211.329899359458</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>983.3403484614406</v>
       </c>
       <c r="Y16" t="n">
-        <v>915.1035305473698</v>
+        <v>762.5477693179106</v>
       </c>
     </row>
     <row r="17">
@@ -5504,40 +5506,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273895</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273895</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>244.2098454714586</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>739.535451687217</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.913939313769</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>1964.511902868375</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>868.6673633290468</v>
+        <v>3192.420589669523</v>
       </c>
       <c r="C19" t="n">
-        <v>699.7311804011399</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="D19" t="n">
-        <v>549.6145409888042</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797183</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L19" t="n">
-        <v>826.140538179774</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910808</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279801</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R19" t="n">
-        <v>2445.313972384678</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S19" t="n">
-        <v>2262.459138039582</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="T19" t="n">
-        <v>2042.857673062523</v>
+        <v>4404.185983673938</v>
       </c>
       <c r="U19" t="n">
-        <v>1753.782446406721</v>
+        <v>4115.110757018136</v>
       </c>
       <c r="V19" t="n">
-        <v>1499.097958200834</v>
+        <v>4112.26835457827</v>
       </c>
       <c r="W19" t="n">
-        <v>1499.097958200834</v>
+        <v>3822.85118454131</v>
       </c>
       <c r="X19" t="n">
-        <v>1271.108407302816</v>
+        <v>3594.861633643292</v>
       </c>
       <c r="Y19" t="n">
-        <v>1050.315828159286</v>
+        <v>3374.069054499762</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5741,28 +5743,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,16 +5788,16 @@
         <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>2232.33506728162</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>2381.981709809275</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
-        <v>2381.981709809275</v>
+        <v>175.8744207939072</v>
       </c>
       <c r="L21" t="n">
-        <v>2877.307316025034</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M21" t="n">
-        <v>3474.685803651586</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N21" t="n">
-        <v>4102.283767206192</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
-        <v>4654.19349744548</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>4654.19349744548</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3047.140839595364</v>
+        <v>961.4446166151497</v>
       </c>
       <c r="C22" t="n">
-        <v>3047.140839595364</v>
+        <v>792.5084336872429</v>
       </c>
       <c r="D22" t="n">
-        <v>2941.397703389529</v>
+        <v>779.6143379232831</v>
       </c>
       <c r="E22" t="n">
-        <v>2793.484609807136</v>
+        <v>631.7012443408901</v>
       </c>
       <c r="F22" t="n">
-        <v>2646.594662309225</v>
+        <v>484.8112968429799</v>
       </c>
       <c r="G22" t="n">
-        <v>2479.398563024105</v>
+        <v>317.6151975578599</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866303</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.33114932884</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673038</v>
+        <v>1907.987318831767</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467151</v>
+        <v>1653.30283062588</v>
       </c>
       <c r="W22" t="n">
-        <v>3677.571434467151</v>
+        <v>1363.885660588919</v>
       </c>
       <c r="X22" t="n">
-        <v>3449.581883569134</v>
+        <v>1363.885660588919</v>
       </c>
       <c r="Y22" t="n">
-        <v>3228.789304425604</v>
+        <v>1143.093081445389</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075802</v>
@@ -6002,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6014,25 +6016,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
         <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>2233.355914590557</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>2383.002557118212</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K24" t="n">
-        <v>2383.002557118212</v>
+        <v>409.1360811687895</v>
       </c>
       <c r="L24" t="n">
-        <v>2383.002557118212</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M24" t="n">
-        <v>2980.381044744764</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N24" t="n">
-        <v>3607.979008299371</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>4159.888738538658</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>4583.511888033726</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3195.647281583947</v>
+        <v>560.7825789706072</v>
       </c>
       <c r="C25" t="n">
-        <v>3026.711098656041</v>
+        <v>391.8463960427005</v>
       </c>
       <c r="D25" t="n">
-        <v>2876.594459243705</v>
+        <v>241.7297566303649</v>
       </c>
       <c r="E25" t="n">
-        <v>2728.681365661312</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661312</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376192</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398593</v>
+        <v>2426.846358063197</v>
       </c>
       <c r="S25" t="n">
-        <v>4650.866675433425</v>
+        <v>2243.991523718102</v>
       </c>
       <c r="T25" t="n">
-        <v>4431.265210456367</v>
+        <v>2024.390058741043</v>
       </c>
       <c r="U25" t="n">
-        <v>4142.189983800565</v>
+        <v>1735.314832085241</v>
       </c>
       <c r="V25" t="n">
-        <v>3887.505495594678</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W25" t="n">
-        <v>3598.088325557717</v>
+        <v>1191.213173842394</v>
       </c>
       <c r="X25" t="n">
-        <v>3598.088325557717</v>
+        <v>963.2236229443769</v>
       </c>
       <c r="Y25" t="n">
-        <v>3377.295746414187</v>
+        <v>742.4310438008469</v>
       </c>
     </row>
     <row r="26">
@@ -6221,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6303,28 +6305,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>577.3880777468471</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1174.766565373399</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1802.364528928006</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3012.408157764291</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>2843.471974836385</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D28" t="n">
-        <v>2733.859482001421</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E28" t="n">
-        <v>2733.859482001421</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>2586.969534503511</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>2419.773435218391</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>3932.255922673039</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>3642.838752636078</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X28" t="n">
-        <v>3414.849201738061</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y28" t="n">
-        <v>3194.056622594531</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="29">
@@ -6458,25 +6460,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1140.291933891999</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1767.889897446606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>1057.955258982919</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>889.0190760550122</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>738.9024366426764</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>590.9893430602833</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>444.0993955623729</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>276.9032962772529</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6649,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1936.428221820188</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W31" t="n">
-        <v>1647.011051783227</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.02150088521</v>
+        <v>1460.396302956689</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>1239.603723813159</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6688,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6698,10 +6700,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6737,10 +6739,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6777,28 +6779,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1092.345997432834</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>923.4098145049275</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>773.2931750925917</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>625.3800815101986</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>478.4901340122882</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>311.2940347271681</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>169.5822035693662</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6889,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1722.776592304621</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1494.787041406604</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1273.994462263074</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6917,37 +6919,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362679</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6965,7 +6967,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -7014,25 +7016,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>315.9123021921482</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L36" t="n">
-        <v>315.9123021921482</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>913.2907898187001</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3336.216066251167</v>
+        <v>2943.601249219472</v>
       </c>
       <c r="C37" t="n">
-        <v>3167.27988332326</v>
+        <v>2943.601249219472</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741616</v>
+        <v>2793.484609807137</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159223</v>
+        <v>2793.484609807137</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I37" t="n">
         <v>2337.686731866304</v>
@@ -7120,25 +7122,25 @@
         <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>4445.161729136727</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>4225.560264159669</v>
       </c>
       <c r="U37" t="n">
-        <v>4221.331149328841</v>
+        <v>3936.485037503867</v>
       </c>
       <c r="V37" t="n">
-        <v>3966.646661122954</v>
+        <v>3681.80054929798</v>
       </c>
       <c r="W37" t="n">
-        <v>3966.646661122954</v>
+        <v>3392.383379261019</v>
       </c>
       <c r="X37" t="n">
-        <v>3738.657110224937</v>
+        <v>3164.393828363002</v>
       </c>
       <c r="Y37" t="n">
-        <v>3517.864531081407</v>
+        <v>2943.601249219472</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7163,61 +7165,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192468</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111702</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7239,34 +7241,34 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756265</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756265</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913852</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417937</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1963.765362972544</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D40" t="n">
-        <v>240.7066105458822</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>267.680263960966</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797183</v>
+        <v>120.7903164630557</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797183</v>
+        <v>120.7903164630557</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797183</v>
+        <v>120.7903164630557</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="41">
@@ -7400,31 +7402,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
         <v>119.290296770379</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>956.9553291057244</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C43" t="n">
-        <v>788.0191461778176</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654818</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>1327.139029956954</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y43" t="n">
-        <v>1138.603793935964</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="44">
@@ -7646,10 +7648,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7725,19 +7727,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
         <v>1896.176478190825</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>996.5276398439756</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>827.5914569160688</v>
       </c>
       <c r="D46" t="n">
-        <v>194.8007783998286</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>194.8007783998286</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7840,16 +7842,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1178.176104674215</v>
       </c>
     </row>
   </sheetData>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,19 +23469,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>6.257951202383111</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V13" t="n">
-        <v>92.15795203868043</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>47.87918985573532</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.6435571543339</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856543</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012159</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23893,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>64.74262662649552</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>249.323664908361</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>43.9297681744352</v>
+        <v>135.850318211892</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24373,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856541</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>46.45968844822777</v>
       </c>
       <c r="S25" t="n">
-        <v>141.4594738061291</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>40.09910511159836</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>212.7396875474385</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>40.30478226780124</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,16 +24891,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>280.2941372823665</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>6.257951202385144</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
     </row>
     <row r="35">
@@ -25309,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>6.257951202384419</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,19 +25362,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>4.186823682519304</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>45.44677382459305</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>54.56191943763254</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25789,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>37.52737017531081</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -25849,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.93476969131453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>101.1181252153552</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>45.44677382459309</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>675655.0481844522</v>
+        <v>675655.0481844523</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>675655.0481844522</v>
+        <v>675655.0481844523</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>675655.0481844522</v>
+        <v>675655.0481844523</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>675655.0481844522</v>
+        <v>675655.0481844523</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>675655.0481844523</v>
+        <v>675655.0481844521</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>675655.0481844521</v>
+        <v>675655.0481844522</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244628</v>
       </c>
       <c r="C2" t="n">
         <v>759463.6371244624</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.604713255</v>
       </c>
       <c r="G2" t="n">
-        <v>746610.604713255</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="H2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="I2" t="n">
-        <v>746610.6047132557</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="J2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="K2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="L2" t="n">
         <v>746610.6047132554</v>
       </c>
-      <c r="K2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="L2" t="n">
-        <v>746610.6047132552</v>
-      </c>
       <c r="M2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="N2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="O2" t="n">
+        <v>746610.6047132557</v>
+      </c>
+      <c r="P2" t="n">
         <v>746610.6047132554</v>
-      </c>
-      <c r="P2" t="n">
-        <v>746610.6047132551</v>
       </c>
     </row>
     <row r="3">
@@ -26363,34 +26365,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>6.34467155123275e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.461807355</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972772</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.495518936071781e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26399,7 +26401,7 @@
         <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813248</v>
+        <v>89744.12305813264</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813248</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813249</v>
+        <v>89744.12305813252</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678131</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678128</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678129</v>
+        <v>10557.08828678124</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678127</v>
+        <v>10557.0882867813</v>
       </c>
       <c r="I4" t="n">
         <v>10557.08828678124</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678123</v>
       </c>
       <c r="K4" t="n">
         <v>10557.08828678121</v>
@@ -26451,7 +26453,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="N4" t="n">
-        <v>10557.08828678131</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="O4" t="n">
         <v>10557.08828678121</v>
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>107933.9405613932</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-766959.1722226561</v>
+        <v>-766959.172222655</v>
       </c>
       <c r="C6" t="n">
-        <v>561785.5735049366</v>
+        <v>561785.5735049361</v>
       </c>
       <c r="D6" t="n">
-        <v>561785.5735049365</v>
+        <v>561785.5735049364</v>
       </c>
       <c r="E6" t="n">
-        <v>309518.5247952116</v>
+        <v>309518.5247952117</v>
       </c>
       <c r="F6" t="n">
-        <v>634930.986602567</v>
+        <v>634930.9866025666</v>
       </c>
       <c r="G6" t="n">
+        <v>634930.9866025667</v>
+      </c>
+      <c r="H6" t="n">
+        <v>634930.9866025669</v>
+      </c>
+      <c r="I6" t="n">
         <v>634930.9866025671</v>
       </c>
-      <c r="H6" t="n">
-        <v>634930.986602567</v>
-      </c>
-      <c r="I6" t="n">
-        <v>634930.9866025674</v>
-      </c>
       <c r="J6" t="n">
-        <v>417399.7842052896</v>
+        <v>417399.7842052897</v>
       </c>
       <c r="K6" t="n">
-        <v>634930.9866025669</v>
+        <v>634930.9866025667</v>
       </c>
       <c r="L6" t="n">
-        <v>634930.9866025669</v>
+        <v>634930.9866025671</v>
       </c>
       <c r="M6" t="n">
-        <v>549875.9586670552</v>
+        <v>549875.9586670554</v>
       </c>
       <c r="N6" t="n">
-        <v>634930.9866025669</v>
+        <v>634930.9866025668</v>
       </c>
       <c r="O6" t="n">
+        <v>634930.9866025675</v>
+      </c>
+      <c r="P6" t="n">
         <v>634930.9866025671</v>
-      </c>
-      <c r="P6" t="n">
-        <v>634930.9866025668</v>
       </c>
     </row>
   </sheetData>
@@ -26692,22 +26694,22 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26750,7 +26752,7 @@
         <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.401455402292</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.2505288371554e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26960,25 +26962,25 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26993,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.401455402292</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.2505288371554e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.401455402292</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>185.6557131212109</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>22.80408245744235</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27552,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,22 +27587,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>279.6400093689963</v>
+        <v>50.03084367506148</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2.077050746146597</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>5.702898665544296</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27676,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,25 +27776,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,13 +27827,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>64.50652129586763</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>93.14706297090407</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>11.86547352390448</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>277.2566436803255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,10 +28019,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28062,19 +28064,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>146.7932939721642</v>
+        <v>69.33983934104313</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
     </row>
     <row r="14">
@@ -28324,19 +28326,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28375,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28384,10 +28386,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28482,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
     </row>
     <row r="17">
@@ -28719,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
     </row>
     <row r="20">
@@ -28816,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28858,7 +28860,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -28956,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
     </row>
     <row r="23">
@@ -29193,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>1.116567156194443e-13</v>
       </c>
     </row>
     <row r="26">
@@ -29323,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>5.519365296858341e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,40 +31837,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>191.332301678856</v>
+        <v>510.8679233250726</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043738</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,40 +32074,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>153.9723775119824</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>193.964997009853</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>287.9685048518535</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862118</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437241</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32546,13 +32548,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>100.2764607028583</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>220.7280629601522</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32564,16 +32566,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>456.3459017226597</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>248.3870916262909</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,16 +33025,16 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>597.1709559744729</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33044,10 +33046,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>303.7670002884146</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,31 +33259,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>697.06562727909</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>606.5820696732821</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33418,7 +33420,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33497,19 +33499,19 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33518,10 +33520,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>364.3208035245835</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,19 +33736,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>209.2370040367373</v>
+        <v>258.3858318060507</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33755,7 +33757,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067219</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>151.9914336104071</v>
       </c>
       <c r="O39" t="n">
-        <v>272.9327299394446</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +34000,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34205,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34214,7 +34216,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>162.5000833330458</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34366,13 +34368,13 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34445,22 +34447,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>428.6149474293401</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>369.1789913099997</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>59.99058959552271</v>
+        <v>379.5262112417394</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
         <v>426.2724270010451</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>27.13475084531573</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>59.99058959552271</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
         <v>426.2724270010451</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774872</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>150.1270658774945</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992796</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789205</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066248</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36194,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7540807028583389</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>82.88662398579325</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36212,16 +36214,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>318.5044627483007</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>108.4053175402694</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295353</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096351</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>455.0369220524547</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36692,10 +36694,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>163.785226202393</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>554.9315933570717</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37081,7 +37083,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37145,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37166,10 +37168,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>224.339029438562</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,19 +37384,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>71.39556506237828</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37403,7 +37405,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236316015</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>20.64972152707382</v>
       </c>
       <c r="O39" t="n">
-        <v>130.3364854950001</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37862,7 +37864,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>23.94570355317166</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -38014,13 +38016,13 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38093,22 +38095,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>290.0605676494659</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>226.5827468655553</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3515696.275359738</v>
+        <v>3511683.665345745</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283177</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7845767.170793234</v>
+        <v>7845767.170793233</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>179.6171786497967</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>330.7598727037321</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>96.50675189249597</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -837,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>236.4921546615295</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -907,13 +907,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>401.1731470761671</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -949,19 +949,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>17.35112070699443</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1062,16 +1062,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>103.2354093774329</v>
       </c>
       <c r="V7" t="n">
-        <v>158.9905803529239</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>395.010572217807</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>332.0169735431567</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1189,10 +1189,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1296,13 +1296,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>217.1831589955479</v>
+        <v>114.2656173771021</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576153</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465691</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462238</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856543</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012159</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016445</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>211.147499124905</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569552</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>22.65115569188991</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272882</v>
+        <v>100.7362831624772</v>
       </c>
       <c r="U16" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465691</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462238</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856542</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012157</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>2.813978415466854</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2140,10 +2140,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>12.76515480632025</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465691</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462238</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856542</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012157</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465691</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>19.91555826189378</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>73.78331078915251</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>99.98993057842264</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,10 +3009,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>172.1249649038638</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.154082144413</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>176.8394623191253</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>26.70391688093298</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>108.9065924712584</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>47.49734780285714</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4194,13 +4194,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796229</v>
+        <v>1952.040104645724</v>
       </c>
       <c r="C2" t="n">
-        <v>740.3389622939696</v>
+        <v>1952.040104645724</v>
       </c>
       <c r="D2" t="n">
-        <v>382.0732636872191</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>382.0732636872191</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>375.1277629380156</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218336</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052365</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609168</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136263</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520485</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794321</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450751</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180636</v>
+        <v>2325.505862906804</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919556</v>
+        <v>1952.040104645724</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943745</v>
+        <v>1952.040104645724</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556935</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275809</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614557</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609102</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635986</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686049</v>
+        <v>936.5735814686086</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064724</v>
+        <v>846.0716871064762</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080108</v>
+        <v>827.0643955080141</v>
       </c>
       <c r="J3" t="n">
-        <v>920.741664998628</v>
+        <v>920.7416649986314</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978975</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291641</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513957</v>
+        <v>1972.98034951396</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068411</v>
+        <v>2446.503393068415</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486466</v>
+        <v>2857.46467248647</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962568</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609168</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201683</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695163</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373019</v>
+        <v>3003.380581373023</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507434</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275692</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.92326954749</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341957</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577004</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>675.2351809199101</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>675.2351809199101</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2351809199101</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218336</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279951</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672846</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242372</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W4" t="n">
-        <v>896.0277600634403</v>
+        <v>1637.877378051533</v>
       </c>
       <c r="X4" t="n">
-        <v>896.0277600634403</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y4" t="n">
-        <v>675.2351809199101</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1935.366530930991</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1566.404013990579</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1208.138315383829</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>822.3500627855844</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4591,28 +4591,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906803</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X5" t="n">
-        <v>2325.505862906803</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y5" t="n">
-        <v>1935.366530930991</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="6">
@@ -4622,70 +4622,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>678.6720730524786</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>509.7358901245717</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>359.619250712236</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>359.619250712236</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4752,25 +4752,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.675339798491</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="V7" t="n">
-        <v>1196.078793987456</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W7" t="n">
-        <v>906.6616239504959</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>678.6720730524786</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>678.6720730524786</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1308.370295943747</v>
+        <v>1896.503151925173</v>
       </c>
       <c r="C8" t="n">
-        <v>1308.370295943747</v>
+        <v>1896.503151925173</v>
       </c>
       <c r="D8" t="n">
-        <v>1308.370295943747</v>
+        <v>1538.237453318422</v>
       </c>
       <c r="E8" t="n">
-        <v>922.5820433455031</v>
+        <v>1152.449200720178</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>741.4632959305704</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943747</v>
+        <v>2283.102991989294</v>
       </c>
     </row>
     <row r="9">
@@ -4874,16 +4874,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>794.6070935315613</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C10" t="n">
-        <v>625.6709106036544</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>625.6709106036544</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
         <v>477.7578170212613</v>
@@ -4959,7 +4959,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U10" t="n">
-        <v>1416.425065783662</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V10" t="n">
-        <v>1416.425065783662</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="W10" t="n">
-        <v>1197.048137505331</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X10" t="n">
-        <v>1197.048137505331</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y10" t="n">
-        <v>976.255558361801</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="11">
@@ -5023,37 +5023,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5062,7 +5062,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5074,10 +5074,10 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852888</v>
@@ -5086,7 +5086,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191924</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>923.067041434951</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356188</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232832</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408902</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429799</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.61519755786</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1983.782243341199</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U13" t="n">
-        <v>1983.782243341199</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V13" t="n">
-        <v>1729.097755135313</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237295</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093765</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5272,43 +5272,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466572</v>
@@ -5317,10 +5317,10 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615996</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>120.6800663848344</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>454.604838556055</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>949.9304447718135</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718135</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.899304487671</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C16" t="n">
-        <v>580.899304487671</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D16" t="n">
-        <v>430.7826650753353</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>430.7826650753353</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>283.8927175774251</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>116.6966182923051</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258107</v>
+        <v>2095.308724111328</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602305</v>
+        <v>1806.233497455525</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396418</v>
+        <v>1551.549009249638</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359458</v>
+        <v>1262.131839212678</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614406</v>
+        <v>1034.14228831466</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179106</v>
+        <v>813.3497091711304</v>
       </c>
     </row>
     <row r="17">
@@ -5506,19 +5506,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5536,7 +5536,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3192.420589669523</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>4623.787448650996</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>4404.185983673938</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>4115.110757018136</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>4112.26835457827</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>3822.85118454131</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>3594.861633643292</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>3374.069054499762</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5743,22 +5743,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5767,10 +5767,10 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852254</v>
@@ -5788,7 +5788,7 @@
         <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>175.8744207939072</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>961.4446166151497</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>792.5084336872429</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232831</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408901</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429799</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578599</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487569</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831767</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.30283062588</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588919</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1363.885660588919</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1143.093081445389</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6065,25 +6065,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>409.1360811687895</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>560.7825789706072</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>391.8463960427005</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>241.7297566303649</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797186</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797186</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797186</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2426.846358063197</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2243.991523718102</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2024.390058741043</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1735.314832085241</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1191.213173842394</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>963.2236229443769</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>742.4310438008469</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6220,19 +6220,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
         <v>402.7245934908939</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1426.218472639697</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1198.22892174168</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6445,28 +6445,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6542,22 +6542,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>1670.092171589158</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1057.955258982919</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>889.0190760550122</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>738.9024366426764</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>590.9893430602833</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>444.0993955623729</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>276.9032962772529</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6657,16 +6657,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1688.385853854706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1460.396302956689</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1239.603723813159</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,46 +6688,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>391.8463960427007</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D34" t="n">
-        <v>241.729756630365</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797187</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6903,7 +6903,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168604</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6967,7 +6967,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -7016,28 +7016,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>214.9229991561138</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2943.601249219472</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>2943.601249219472</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>2793.484609807137</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>2793.484609807137</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>2479.398563024106</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4445.161729136727</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4225.560264159669</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>3936.485037503867</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3681.80054929798</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3392.383379261019</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3164.393828363002</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>2943.601249219472</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7216,7 +7216,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>734.6461798836018</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>565.7099969556949</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>415.5933575433592</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>267.680263960966</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>120.7903164630557</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>120.7903164630557</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>120.7903164630557</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.2946447138415</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327643</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048574</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>594.8179559048574</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.402603663004</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,16 +7636,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7727,25 +7727,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>996.5276398439756</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>827.5914569160688</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7842,16 +7842,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1398.968683817745</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1178.176104674215</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>6.257951202383111</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U13" t="n">
-        <v>286.184474389244</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>117.6435571543339</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856543</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012159</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>116.6691671648111</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016445</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>249.323664908361</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>135.850318211892</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272882</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.709655389037</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462237</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856541</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.45968844822777</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>212.7396875474385</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>40.30478226780124</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>4.186823682519304</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>54.56191943763254</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25794,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>37.52737017531081</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>101.1181252153552</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>675655.0481844523</v>
+        <v>675655.0481844522</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>675655.0481844523</v>
+        <v>675655.0481844522</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>675655.0481844523</v>
+        <v>675655.0481844521</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>675655.0481844523</v>
+        <v>675655.0481844521</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>675655.0481844522</v>
+        <v>675655.0481844521</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>675655.0481844522</v>
+        <v>675655.0481844521</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>675655.0481844523</v>
+        <v>675655.0481844521</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>675655.0481844523</v>
+        <v>675655.0481844521</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>675655.0481844522</v>
+        <v>675655.0481844521</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>675655.0481844522</v>
+        <v>675655.0481844521</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244628</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244626</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="F2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="F2" t="n">
-        <v>746610.604713255</v>
-      </c>
       <c r="G2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="H2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="I2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="J2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="I2" t="n">
-        <v>746610.6047132555</v>
-      </c>
-      <c r="J2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>746610.6047132551</v>
       </c>
-      <c r="L2" t="n">
-        <v>746610.6047132554</v>
-      </c>
       <c r="M2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="N2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132557</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>6.34467155123275e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.461807355</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,13 +26386,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972772</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
-        <v>1.495518936071781e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26401,7 +26401,7 @@
         <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813264</v>
+        <v>89744.12305813245</v>
       </c>
       <c r="C4" t="n">
         <v>89744.12305813251</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813252</v>
+        <v>89744.12305813245</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678131</v>
+        <v>10557.08828678124</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678128</v>
+        <v>10557.08828678126</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678124</v>
+        <v>10557.08828678125</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.0882867813</v>
+        <v>10557.08828678126</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678124</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678123</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
         <v>10557.08828678121</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613932</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-766959.172222655</v>
+        <v>-766959.1722226563</v>
       </c>
       <c r="C6" t="n">
-        <v>561785.5735049361</v>
+        <v>561785.5735049372</v>
       </c>
       <c r="D6" t="n">
-        <v>561785.5735049364</v>
+        <v>561785.5735049365</v>
       </c>
       <c r="E6" t="n">
-        <v>309518.5247952117</v>
+        <v>309171.1455408552</v>
       </c>
       <c r="F6" t="n">
-        <v>634930.9866025666</v>
+        <v>634583.6073482099</v>
       </c>
       <c r="G6" t="n">
-        <v>634930.9866025667</v>
+        <v>634583.6073482098</v>
       </c>
       <c r="H6" t="n">
-        <v>634930.9866025669</v>
+        <v>634583.6073482098</v>
       </c>
       <c r="I6" t="n">
-        <v>634930.9866025671</v>
+        <v>634583.6073482101</v>
       </c>
       <c r="J6" t="n">
-        <v>417399.7842052897</v>
+        <v>417052.4049509323</v>
       </c>
       <c r="K6" t="n">
-        <v>634930.9866025667</v>
+        <v>634583.6073482102</v>
       </c>
       <c r="L6" t="n">
-        <v>634930.9866025671</v>
+        <v>634583.6073482098</v>
       </c>
       <c r="M6" t="n">
-        <v>549875.9586670554</v>
+        <v>549528.5794126982</v>
       </c>
       <c r="N6" t="n">
-        <v>634930.9866025668</v>
+        <v>634583.6073482099</v>
       </c>
       <c r="O6" t="n">
-        <v>634930.9866025675</v>
+        <v>634583.6073482099</v>
       </c>
       <c r="P6" t="n">
-        <v>634930.9866025671</v>
+        <v>634583.6073482099</v>
       </c>
     </row>
   </sheetData>
@@ -26694,22 +26694,22 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402292</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.2505288371554e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402292</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022932</v>
       </c>
       <c r="K4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.2505288371554e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402292</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>185.6557131212109</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>23.92316891695083</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>83.32522828944133</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>50.03084367506148</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27627,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>5.702898665544296</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>331.8898480104186</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,16 +27782,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27824,25 +27824,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>182.97642882818</v>
       </c>
       <c r="V7" t="n">
-        <v>93.14706297090407</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>11.86547352390448</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>78.90475211029673</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27909,10 +27909,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28016,13 +28016,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>69.33983934104313</v>
+        <v>172.2573809594889</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="U11" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28326,19 +28326,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C14" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28386,10 +28386,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28860,10 +28860,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>1.193711796076968e-12</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.116567156194443e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>5.519365296858341e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31837,10 +31837,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31852,16 +31852,16 @@
         <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>510.8679233250726</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32022,7 +32022,7 @@
         <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
@@ -32074,10 +32074,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>153.9723775119824</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>537.262354434964</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214697</v>
@@ -32101,7 +32101,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742437</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32323,19 +32323,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32548,13 +32548,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>220.7280629601522</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32566,13 +32566,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>456.3459017226597</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33022,10 +33022,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33034,13 +33034,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>597.1709559744729</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33262,10 +33262,10 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33274,13 +33274,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>606.5820696732821</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33420,7 +33420,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33508,16 +33508,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>652.0478969157701</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33736,10 +33736,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>258.3858318060507</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33748,19 +33748,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>151.9914336104071</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,16 +34207,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34365,10 +34365,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34447,28 +34447,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>428.6149474293401</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678995</v>
@@ -35500,16 +35500,16 @@
         <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>379.5262112417394</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>27.13475084531573</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678995</v>
@@ -35740,7 +35740,7 @@
         <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>394.6661099905195</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071394</v>
@@ -35749,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35971,19 +35971,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>82.88662398579325</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36214,13 +36214,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396416</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>318.5044627483007</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295353</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36682,13 +36682,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>455.0369220524547</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36922,13 +36922,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>463.9858252288377</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37156,16 +37156,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>509.9138629937518</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>120.5443928316917</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37396,19 +37396,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>20.64972152707382</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38013,10 +38013,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38095,28 +38095,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>290.0605676494659</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3511683.665345745</v>
+        <v>3513444.19564853</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7845767.170793233</v>
+        <v>7845767.170793235</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>28.90798465780184</v>
       </c>
       <c r="D2" t="n">
-        <v>330.7598727037321</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>96.50675189249597</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -837,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>47.4125471331595</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>21.27902055891022</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -949,16 +949,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>17.35112070699443</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>103.2354093774329</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>332.0169735431567</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>292.3520130340203</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>114.2656173771021</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576153</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,10 +1533,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>264.5606084460156</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>100.7362831624772</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>180.0179497934419</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2143,13 +2143,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="21">
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2715,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>53.08838020946216</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3189,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>123.9815576456779</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3201,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>34.00490843294678</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>123.9815576456779</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>153.589961858651</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1952.040104645724</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="C2" t="n">
-        <v>1952.040104645724</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176918</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2325.505862906804</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1952.040104645724</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>1952.040104645724</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686086</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064762</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080141</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986314</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068415</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.46467248647</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609172</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373023</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>2392.599276780829</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>2223.663093852922</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>2073.546454440587</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>1925.633360858194</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>1778.743413360284</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>1611.040576735003</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>1713.933205348672</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>2374.650049396717</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022995</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V4" t="n">
-        <v>1927.294548088493</v>
+        <v>3070.921333403283</v>
       </c>
       <c r="W4" t="n">
-        <v>1637.877378051533</v>
+        <v>3023.029871652617</v>
       </c>
       <c r="X4" t="n">
-        <v>1409.887827153515</v>
+        <v>2795.040320754599</v>
       </c>
       <c r="Y4" t="n">
-        <v>1189.095248009985</v>
+        <v>2574.247741611069</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1639.433183287318</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1639.433183287318</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4591,28 +4591,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>3197.788768583745</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X5" t="n">
-        <v>2824.323010322666</v>
+        <v>2029.57251526313</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>1639.433183287318</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
@@ -4652,7 +4652,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4713,16 +4713,16 @@
         <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574644</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,19 +4749,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1733.185899555685</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1478.501411349798</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
         <v>1478.501411349798</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1896.503151925173</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1896.503151925173</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1538.237453318422</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1152.449200720178</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>741.4632959305704</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="W8" t="n">
-        <v>2656.568750250374</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="X8" t="n">
-        <v>2283.102991989294</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y8" t="n">
-        <v>2283.102991989294</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="9">
@@ -4877,7 +4877,7 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4889,7 +4889,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1837.464090846021</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1837.464090846021</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1722.044275313594</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>1494.054724415577</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>1273.262145272047</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5032,31 +5032,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5068,7 +5068,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803937</v>
@@ -5129,10 +5129,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>718.5507239167111</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2338.476105524075</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>2049.400878868273</v>
+        <v>1893.082977031346</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.716390662386</v>
+        <v>1638.398488825459</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>900.1991887469509</v>
       </c>
     </row>
     <row r="14">
@@ -5275,31 +5275,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5311,19 +5311,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5354,7 +5354,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
@@ -5366,13 +5366,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
         <v>2516.421633107662</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>631.7012443408906</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797186</v>
@@ -5439,10 +5439,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2095.308724111328</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1806.233497455525</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1551.549009249638</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1262.131839212678</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>1034.14228831466</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>813.3497091711304</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5542,25 +5542,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5749,28 +5749,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852254</v>
@@ -5791,10 +5791,10 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797186</v>
@@ -5940,22 +5940,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5989,52 +5989,52 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797186</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="29">
@@ -6445,46 +6445,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6600,25 +6600,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6691,43 +6691,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>388.6197041282753</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797186</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>986.1256051221279</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>817.189422194221</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>667.0727827818853</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>519.1596891994922</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1388.566649095898</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1167.774069952368</v>
       </c>
     </row>
     <row r="38">
@@ -7153,31 +7153,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7204,19 +7204,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>21.62386594322851</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>116.6691671648111</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>72.11969353038606</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>114.1584408891657</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823101</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>43.2652634529499</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>111.4161395899845</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>43.2652634529499</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>675655.0481844521</v>
+        <v>675655.0481844522</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>675655.0481844521</v>
+        <v>675655.0481844522</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>675655.0481844521</v>
+        <v>675655.0481844523</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>675655.0481844521</v>
+        <v>675655.0481844523</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>675655.0481844521</v>
+        <v>675655.0481844523</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>675655.0481844521</v>
+        <v>675655.0481844522</v>
       </c>
     </row>
     <row r="15">
@@ -26316,34 +26316,34 @@
         <v>759463.6371244623</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244626</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="E2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="F2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="I2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="J2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="H2" t="n">
-        <v>746610.6047132551</v>
-      </c>
-      <c r="I2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="J2" t="n">
-        <v>746610.6047132552</v>
-      </c>
       <c r="K2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="L2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="M2" t="n">
         <v>746610.6047132552</v>
@@ -26352,7 +26352,7 @@
         <v>746610.6047132552</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="P2" t="n">
         <v>746610.6047132552</v>
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813245</v>
+        <v>89744.12305813255</v>
       </c>
       <c r="C4" t="n">
         <v>89744.12305813251</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813245</v>
+        <v>89744.12305813246</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678124</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
         <v>10557.08828678126</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678127</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678126</v>
+        <v>10557.08828678127</v>
       </c>
       <c r="I4" t="n">
         <v>10557.08828678121</v>
@@ -26444,7 +26444,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678125</v>
       </c>
       <c r="L4" t="n">
         <v>10557.08828678121</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-766959.1722226563</v>
+        <v>-766959.1722226557</v>
       </c>
       <c r="C6" t="n">
-        <v>561785.5735049372</v>
+        <v>561785.5735049362</v>
       </c>
       <c r="D6" t="n">
-        <v>561785.5735049365</v>
+        <v>561785.5735049364</v>
       </c>
       <c r="E6" t="n">
-        <v>309171.1455408552</v>
+        <v>309483.7868697759</v>
       </c>
       <c r="F6" t="n">
-        <v>634583.6073482099</v>
+        <v>634896.2486771314</v>
       </c>
       <c r="G6" t="n">
-        <v>634583.6073482098</v>
+        <v>634896.2486771313</v>
       </c>
       <c r="H6" t="n">
-        <v>634583.6073482098</v>
+        <v>634896.2486771313</v>
       </c>
       <c r="I6" t="n">
-        <v>634583.6073482101</v>
+        <v>634896.2486771313</v>
       </c>
       <c r="J6" t="n">
-        <v>417052.4049509323</v>
+        <v>417365.0462798538</v>
       </c>
       <c r="K6" t="n">
-        <v>634583.6073482102</v>
+        <v>634896.2486771315</v>
       </c>
       <c r="L6" t="n">
-        <v>634583.6073482098</v>
+        <v>634896.2486771315</v>
       </c>
       <c r="M6" t="n">
-        <v>549528.5794126982</v>
+        <v>549841.2207416195</v>
       </c>
       <c r="N6" t="n">
-        <v>634583.6073482099</v>
+        <v>634896.2486771313</v>
       </c>
       <c r="O6" t="n">
-        <v>634583.6073482099</v>
+        <v>634896.2486771313</v>
       </c>
       <c r="P6" t="n">
-        <v>634583.6073482099</v>
+        <v>634896.2486771313</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,46 +26959,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022932</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>336.3649071132057</v>
       </c>
       <c r="D2" t="n">
-        <v>23.92316891695083</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>83.32522828944133</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27596,10 +27596,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>239.1104512034315</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>333.4040210617728</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,16 +27669,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>331.8898480104186</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,13 +27830,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>182.97642882818</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>78.90475211029673</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>77.37908764444876</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,13 +28067,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>172.2573809594889</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28863,13 +28863,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="21">
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,22 +31840,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,37 +32077,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>537.262354434964</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32949,7 +32949,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L26" t="n">
         <v>867.846407116256</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33274,13 +33274,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33906,7 +33906,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460027</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>394.6661099905195</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36357,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36922,13 +36922,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37554,7 +37554,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
